--- a/app/static/csv/acc-gen/printers.xlsx
+++ b/app/static/csv/acc-gen/printers.xlsx
@@ -420,7 +420,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,7 +437,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -457,13 +457,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -557,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="32">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -601,64 +595,55 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -969,18 +954,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="32" width="4.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="33" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="34" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="33" width="24.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="34" width="12.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="33" width="30.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="34" width="28.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="33" width="22.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="33" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="27" width="4.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="28" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="29" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="28" width="24.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="30" width="12.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="28" width="30.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="30" width="28.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="28" width="22.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="31" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,7 +978,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1006,7 +991,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -1017,7 +1002,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>2</v>
@@ -1042,7 +1027,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="31.5">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1061,13 +1046,13 @@
       <c r="F5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="16" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="10"/>
       <c r="I5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="31.5">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1092,11 +1077,11 @@
       <c r="H6" s="15"/>
       <c r="I6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="14">
         <v>3</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -1117,7 +1102,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="31.5">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1142,11 +1127,11 @@
       <c r="H8" s="15"/>
       <c r="I8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="31.5">
       <c r="A9" s="14">
         <v>5</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C9" s="16" t="s">
@@ -1158,7 +1143,7 @@
       <c r="E9" s="18">
         <v>3</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="15" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="16" t="s">
@@ -1167,7 +1152,7 @@
       <c r="H9" s="15"/>
       <c r="I9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="31.5">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -1186,20 +1171,20 @@
       <c r="F10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="16" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="44.25">
       <c r="A11" s="14">
         <v>7</v>
       </c>
       <c r="B11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="17" t="s">
@@ -1217,43 +1202,43 @@
       <c r="H11" s="15"/>
       <c r="I11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="14">
         <v>8</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="18">
         <v>3</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="16" t="s">
         <v>37</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="25"/>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="31.5">
       <c r="A14" s="14">
         <v>9</v>
       </c>
@@ -1263,7 +1248,7 @@
       <c r="C14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E14" s="18">
@@ -1275,10 +1260,10 @@
       <c r="G14" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="28"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="31.5">
       <c r="A15" s="14">
         <v>10</v>
       </c>
@@ -1288,7 +1273,7 @@
       <c r="C15" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E15" s="18">
@@ -1300,10 +1285,10 @@
       <c r="G15" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="28"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="31.5">
       <c r="A16" s="14">
         <v>11</v>
       </c>
@@ -1313,58 +1298,58 @@
       <c r="C16" s="18">
         <v>5325</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="18">
         <v>2</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="15" t="s">
         <v>47</v>
       </c>
       <c r="G16" s="16">
         <v>3329298093</v>
       </c>
-      <c r="H16" s="28"/>
+      <c r="H16" s="24"/>
       <c r="I16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="25"/>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="31.5">
       <c r="A18" s="14">
         <v>12</v>
       </c>
       <c r="B18" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="15" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="18">
         <v>1</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="15" t="s">
         <v>50</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="28"/>
+      <c r="H18" s="24"/>
       <c r="I18" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="44.25">
       <c r="A19" s="14">
         <v>13</v>
       </c>
@@ -1380,26 +1365,26 @@
       <c r="E19" s="18">
         <v>1</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="15" t="s">
         <v>54</v>
       </c>
       <c r="G19" s="16">
         <v>3160058829</v>
       </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="24"/>
       <c r="I19" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="31.5">
       <c r="A20" s="14">
         <v>14</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="15" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="18">
@@ -1411,10 +1396,10 @@
       <c r="G20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="24"/>
       <c r="I20" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="31.5">
       <c r="A21" s="14">
         <v>15</v>
       </c>
@@ -1424,22 +1409,22 @@
       <c r="C21" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="15" t="s">
         <v>60</v>
       </c>
       <c r="E21" s="18">
         <v>1</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="15" t="s">
         <v>61</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H21" s="28"/>
+      <c r="H21" s="24"/>
       <c r="I21" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="31.5">
       <c r="A22" s="14">
         <v>16</v>
       </c>
@@ -1455,16 +1440,16 @@
       <c r="E22" s="18">
         <v>1</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="15" t="s">
         <v>64</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="28"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="14">
         <v>17</v>
       </c>
@@ -1480,23 +1465,23 @@
       <c r="E23" s="18">
         <v>1</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="15" t="s">
         <v>69</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="28"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="31.5">
       <c r="A24" s="14">
         <v>18</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="17" t="s">
@@ -1505,23 +1490,23 @@
       <c r="E24" s="18">
         <v>1</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="15" t="s">
         <v>73</v>
       </c>
       <c r="G24" s="16">
         <v>3399432927</v>
       </c>
-      <c r="H24" s="28"/>
+      <c r="H24" s="24"/>
       <c r="I24" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="39.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="44.25">
       <c r="A25" s="14">
         <v>19</v>
       </c>
       <c r="B25" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="19" t="s">
         <v>75</v>
       </c>
       <c r="D25" s="17" t="s">
@@ -1530,23 +1515,23 @@
       <c r="E25" s="18">
         <v>1</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="15" t="s">
         <v>77</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="28"/>
+      <c r="H25" s="24"/>
       <c r="I25" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="31.5">
       <c r="A26" s="14">
         <v>20</v>
       </c>
       <c r="B26" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D26" s="17" t="s">
@@ -1555,16 +1540,16 @@
       <c r="E26" s="18">
         <v>1</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="15" t="s">
         <v>79</v>
       </c>
       <c r="G26" s="16">
         <v>3940653265</v>
       </c>
-      <c r="H26" s="28"/>
+      <c r="H26" s="24"/>
       <c r="I26" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="31.5">
       <c r="A27" s="14">
         <v>21</v>
       </c>
@@ -1580,16 +1565,16 @@
       <c r="E27" s="18">
         <v>1</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="15" t="s">
         <v>82</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="H27" s="28"/>
+      <c r="H27" s="24"/>
       <c r="I27" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="14">
         <v>22</v>
       </c>
@@ -1605,24 +1590,24 @@
       <c r="E28" s="18">
         <v>1</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="15" t="s">
         <v>84</v>
       </c>
       <c r="G28" s="16">
         <v>3160059442</v>
       </c>
-      <c r="H28" s="28"/>
+      <c r="H28" s="24"/>
       <c r="I28" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="25"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="21"/>
       <c r="I29" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
@@ -1641,13 +1626,13 @@
       <c r="E30" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="15" t="s">
         <v>89</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="H30" s="29"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
@@ -1666,7 +1651,7 @@
       <c r="E31" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="15" t="s">
         <v>92</v>
       </c>
       <c r="G31" s="16" t="s">
@@ -1691,13 +1676,13 @@
       <c r="E32" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="15" t="s">
         <v>96</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="H32" s="25" t="s">
         <v>98</v>
       </c>
       <c r="I32" s="4"/>
@@ -1718,7 +1703,7 @@
       <c r="E33" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="15" t="s">
         <v>101</v>
       </c>
       <c r="G33" s="16">
@@ -1728,14 +1713,14 @@
       <c r="I33" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="24"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="25"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="21"/>
       <c r="I34" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
@@ -1751,10 +1736,10 @@
       <c r="D35" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G35" s="16" t="s">
@@ -1776,10 +1761,10 @@
       <c r="D36" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G36" s="16" t="s">
@@ -1789,14 +1774,14 @@
       <c r="I36" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="25"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="21"/>
       <c r="I37" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
@@ -1812,23 +1797,23 @@
       <c r="D38" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="21" t="s">
+      <c r="E38" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="15" t="s">
         <v>107</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="H38" s="28"/>
+      <c r="H38" s="24"/>
       <c r="I38" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="14">
         <v>30</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="15" t="s">
         <v>24</v>
       </c>
       <c r="C39" s="16" t="s">
@@ -1837,27 +1822,27 @@
       <c r="D39" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="H39" s="28"/>
+      <c r="H39" s="24"/>
       <c r="I39" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="25"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="21"/>
       <c r="I40" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
@@ -1873,7 +1858,7 @@
       <c r="D41" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E41" s="19" t="s">
         <v>112</v>
       </c>
       <c r="F41" s="17" t="s">
@@ -1898,7 +1883,7 @@
       <c r="D42" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E42" s="21" t="s">
+      <c r="E42" s="19" t="s">
         <v>112</v>
       </c>
       <c r="F42" s="17" t="s">
@@ -1923,7 +1908,7 @@
       <c r="D43" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="E43" s="19" t="s">
         <v>112</v>
       </c>
       <c r="F43" s="17" t="s">
@@ -1948,7 +1933,7 @@
       <c r="D44" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E44" s="21" t="s">
+      <c r="E44" s="19" t="s">
         <v>112</v>
       </c>
       <c r="F44" s="17" t="s">
@@ -1967,13 +1952,13 @@
       <c r="B45" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="19" t="s">
         <v>120</v>
       </c>
       <c r="D45" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="21" t="s">
+      <c r="E45" s="19" t="s">
         <v>112</v>
       </c>
       <c r="F45" s="17" t="s">
@@ -1982,20 +1967,20 @@
       <c r="G45" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="H45" s="29" t="s">
+      <c r="H45" s="25" t="s">
         <v>98</v>
       </c>
       <c r="I45" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="25"/>
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="21"/>
       <c r="I46" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
@@ -2011,7 +1996,7 @@
       <c r="D47" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="E47" s="19" t="s">
         <v>124</v>
       </c>
       <c r="F47" s="17" t="s">
@@ -2034,7 +2019,7 @@
       <c r="D48" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E48" s="19" t="s">
         <v>124</v>
       </c>
       <c r="F48" s="17" t="s">
@@ -2045,33 +2030,33 @@
       <c r="I48" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="25"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="21"/>
       <c r="I49" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="14">
         <v>38</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="15" t="s">
         <v>125</v>
       </c>
       <c r="C50" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="E50" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F50" s="22" t="s">
+      <c r="F50" s="17" t="s">
         <v>127</v>
       </c>
       <c r="G50" s="16" t="s">
@@ -2090,13 +2075,13 @@
       <c r="C51" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D51" s="22" t="s">
+      <c r="D51" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="30" t="s">
+      <c r="E51" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F51" s="22" t="s">
+      <c r="F51" s="17" t="s">
         <v>127</v>
       </c>
       <c r="G51" s="16" t="s">
@@ -2115,19 +2100,19 @@
       <c r="C52" s="18">
         <v>3260</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="30" t="s">
+      <c r="E52" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="17" t="s">
         <v>127</v>
       </c>
       <c r="G52" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="H52" s="31" t="s">
+      <c r="H52" s="26" t="s">
         <v>131</v>
       </c>
       <c r="I52" s="4"/>
@@ -2139,35 +2124,35 @@
       <c r="B53" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="22" t="s">
+      <c r="D53" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="E53" s="30" t="s">
+      <c r="E53" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="F53" s="22" t="s">
+      <c r="F53" s="17" t="s">
         <v>127</v>
       </c>
       <c r="G53" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="H53" s="29" t="s">
+      <c r="H53" s="25" t="s">
         <v>98</v>
       </c>
       <c r="I53" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
-      <c r="A54" s="24"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="25"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="21"/>
       <c r="I54" s="4"/>
     </row>
   </sheetData>

--- a/app/static/csv/acc-gen/printers.xlsx
+++ b/app/static/csv/acc-gen/printers.xlsx
@@ -965,7 +965,7 @@
     <col min="9" max="9" style="31" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="22.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -978,7 +978,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="22.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="23.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -991,7 +991,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -1002,7 +1002,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
         <v>2</v>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="33">
       <c r="A5" s="14">
         <v>1</v>
       </c>
@@ -1052,7 +1052,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="33">
       <c r="A6" s="14">
         <v>2</v>
       </c>
@@ -1077,7 +1077,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -1102,7 +1102,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -1127,7 +1127,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -1152,7 +1152,7 @@
       <c r="H9" s="15"/>
       <c r="I9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -1177,7 +1177,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="44.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="46.5">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -1202,7 +1202,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="14">
         <v>8</v>
       </c>
@@ -1227,7 +1227,7 @@
       <c r="H12" s="15"/>
       <c r="I12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -1238,7 +1238,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="33">
       <c r="A14" s="14">
         <v>9</v>
       </c>
@@ -1263,7 +1263,7 @@
       <c r="H14" s="24"/>
       <c r="I14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="33">
       <c r="A15" s="14">
         <v>10</v>
       </c>
@@ -1288,7 +1288,7 @@
       <c r="H15" s="24"/>
       <c r="I15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="33">
       <c r="A16" s="14">
         <v>11</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="H16" s="24"/>
       <c r="I16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="20"/>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
@@ -1324,7 +1324,7 @@
       <c r="H17" s="21"/>
       <c r="I17" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="33">
       <c r="A18" s="14">
         <v>12</v>
       </c>
@@ -1349,7 +1349,7 @@
       <c r="H18" s="24"/>
       <c r="I18" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="44.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="46.5">
       <c r="A19" s="14">
         <v>13</v>
       </c>
@@ -1374,7 +1374,7 @@
       <c r="H19" s="24"/>
       <c r="I19" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="31.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="33">
       <c r="A20" s="14">
         <v>14</v>
       </c>
